--- a/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_13_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>97.07172488441307</v>
+        <v>86.66257995531019</v>
       </c>
       <c r="D2" t="n">
-        <v>31.61767266621612</v>
+        <v>39.06573727628849</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.13319155862315</v>
+        <v>87.54082149128818</v>
       </c>
       <c r="D3" t="n">
-        <v>31.55941148824217</v>
+        <v>29.63899241285857</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.94286466109504</v>
+        <v>84.36447917840151</v>
       </c>
       <c r="D4" t="n">
-        <v>36.12259568531927</v>
+        <v>32.33894940220424</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.92794956834152</v>
+        <v>90.54699492370753</v>
       </c>
       <c r="D5" t="n">
-        <v>34.09239392346331</v>
+        <v>31.1239027362416</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.67537594997221</v>
+        <v>86.24514773480735</v>
       </c>
       <c r="D6" t="n">
-        <v>35.3688577103105</v>
+        <v>29.25153530859961</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.90372505547188</v>
+        <v>87.71907734226957</v>
       </c>
       <c r="D7" t="n">
-        <v>34.81709785945854</v>
+        <v>33.46054332469951</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.27752034388806</v>
+        <v>85.47789098343074</v>
       </c>
       <c r="D8" t="n">
-        <v>35.35110659636327</v>
+        <v>32.78116230758789</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.48697042528505</v>
+        <v>81.99909032825714</v>
       </c>
       <c r="D9" t="n">
-        <v>31.98527000333768</v>
+        <v>33.40889133865515</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.76475831430137</v>
+        <v>82.14706594116376</v>
       </c>
       <c r="D10" t="n">
-        <v>32.38926766366448</v>
+        <v>36.00228102064891</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.86785477930914</v>
+        <v>77.97628639111595</v>
       </c>
       <c r="D11" t="n">
-        <v>39.34274992663571</v>
+        <v>31.91238776263164</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>86.53475476812086</v>
+        <v>80.8822010657089</v>
       </c>
       <c r="D12" t="n">
-        <v>35.37236856291403</v>
+        <v>34.70115384820833</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.83547404370803</v>
+        <v>80.67763826319327</v>
       </c>
       <c r="D13" t="n">
-        <v>37.19534741138113</v>
+        <v>38.60417582661233</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>85.87120400503004</v>
+        <v>77.16634476014764</v>
       </c>
       <c r="D14" t="n">
-        <v>36.39421939789218</v>
+        <v>31.11348346202376</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.25402872324717</v>
+        <v>76.86760307689096</v>
       </c>
       <c r="D15" t="n">
-        <v>35.38326229476939</v>
+        <v>37.36546951305041</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>69.90976873010769</v>
+        <v>72.48001533671891</v>
       </c>
       <c r="D16" t="n">
-        <v>32.58280250874319</v>
+        <v>33.46546916089651</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>80.13176321628835</v>
+        <v>75.05521168399652</v>
       </c>
       <c r="D17" t="n">
-        <v>34.64258900123519</v>
+        <v>31.43602391999202</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>71.93490117334245</v>
+        <v>76.31489759664768</v>
       </c>
       <c r="D18" t="n">
-        <v>30.24997689456186</v>
+        <v>28.63557755905612</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.15429341836581</v>
+        <v>83.13995465028012</v>
       </c>
       <c r="D19" t="n">
-        <v>34.97381611715434</v>
+        <v>34.81430424652902</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.31060113254196</v>
+        <v>72.08199601834181</v>
       </c>
       <c r="D20" t="n">
-        <v>37.50543524915164</v>
+        <v>32.28946982973257</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>66.61860675020921</v>
+        <v>71.4160485228814</v>
       </c>
       <c r="D21" t="n">
-        <v>36.79357545789154</v>
+        <v>33.82485929193229</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>75.88109557249199</v>
+        <v>68.41336317650104</v>
       </c>
       <c r="D22" t="n">
-        <v>36.48102482966883</v>
+        <v>34.77807471558776</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.57232505616231</v>
+        <v>69.45226524973826</v>
       </c>
       <c r="D23" t="n">
-        <v>33.10134929391608</v>
+        <v>33.30656660934113</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>65.21577274850394</v>
+        <v>68.00318732946927</v>
       </c>
       <c r="D24" t="n">
-        <v>34.26375413988603</v>
+        <v>30.88964271570617</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.57321800557294</v>
+        <v>59.68243491123398</v>
       </c>
       <c r="D25" t="n">
-        <v>31.27158300505359</v>
+        <v>38.71938917024335</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.25860315330914</v>
+        <v>66.98180400128894</v>
       </c>
       <c r="D26" t="n">
-        <v>34.5209929063031</v>
+        <v>32.8957689177097</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.09357105587804</v>
+        <v>63.71914607417825</v>
       </c>
       <c r="D27" t="n">
-        <v>31.22543244520396</v>
+        <v>36.95854284726622</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.8856234036057</v>
+        <v>65.30806803249398</v>
       </c>
       <c r="D28" t="n">
-        <v>38.59711190281779</v>
+        <v>38.26204221695992</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.04202010169718</v>
+        <v>69.3322845885331</v>
       </c>
       <c r="D29" t="n">
-        <v>32.08000034008744</v>
+        <v>34.43048423811076</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>58.43824050467672</v>
+        <v>64.11001334760387</v>
       </c>
       <c r="D30" t="n">
-        <v>32.75439176287955</v>
+        <v>37.6350252921411</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>57.65394810459224</v>
+        <v>62.03732805051991</v>
       </c>
       <c r="D31" t="n">
-        <v>32.3371914840618</v>
+        <v>35.51706217658585</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>66.3502843952502</v>
+        <v>59.27517077322747</v>
       </c>
       <c r="D32" t="n">
-        <v>36.17394613942619</v>
+        <v>31.4278748545837</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>63.98921819392113</v>
+        <v>59.64851116556694</v>
       </c>
       <c r="D33" t="n">
-        <v>30.16979793179047</v>
+        <v>34.99792469543173</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.33663339925793</v>
+        <v>61.03043424764087</v>
       </c>
       <c r="D34" t="n">
-        <v>33.05784733082566</v>
+        <v>28.87954057721763</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>65.25821112507734</v>
+        <v>50.99272517943221</v>
       </c>
       <c r="D35" t="n">
-        <v>32.52410180736589</v>
+        <v>36.85006949824736</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>60.81786636613303</v>
+        <v>58.0404731501991</v>
       </c>
       <c r="D36" t="n">
-        <v>34.58345161524914</v>
+        <v>31.74831896854023</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>59.43379975113355</v>
+        <v>56.94143478469658</v>
       </c>
       <c r="D37" t="n">
-        <v>39.69338354579645</v>
+        <v>31.66855459906913</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.10514271912298</v>
+        <v>52.16954993118348</v>
       </c>
       <c r="D38" t="n">
-        <v>36.38167728182422</v>
+        <v>32.97836586671497</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.75411971916527</v>
+        <v>51.29133276903294</v>
       </c>
       <c r="D39" t="n">
-        <v>36.37598752500593</v>
+        <v>33.8199847249867</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.6246270611536</v>
+        <v>55.37055194385346</v>
       </c>
       <c r="D40" t="n">
-        <v>31.17084292022781</v>
+        <v>31.71776475383867</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>57.03337975971525</v>
+        <v>46.43662121083905</v>
       </c>
       <c r="D41" t="n">
-        <v>31.59499920174358</v>
+        <v>35.11310482335927</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>44.50457210250091</v>
+        <v>49.39407367307078</v>
       </c>
       <c r="D42" t="n">
-        <v>32.4102591940573</v>
+        <v>30.7085884608727</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.37561358993432</v>
+        <v>52.43796282253883</v>
       </c>
       <c r="D43" t="n">
-        <v>39.08203401476234</v>
+        <v>37.62427722052237</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>56.25800514756052</v>
+        <v>48.21206844004383</v>
       </c>
       <c r="D44" t="n">
-        <v>34.77793918332635</v>
+        <v>31.72883898456804</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.35421002136141</v>
+        <v>47.55979565537542</v>
       </c>
       <c r="D45" t="n">
-        <v>32.60664983958156</v>
+        <v>37.80856272444398</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.78795530246681</v>
+        <v>41.21080318665386</v>
       </c>
       <c r="D46" t="n">
-        <v>33.74148669992125</v>
+        <v>29.9964511581631</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>40.09279720711157</v>
+        <v>44.85339786762282</v>
       </c>
       <c r="D47" t="n">
-        <v>31.34774738188008</v>
+        <v>38.30291851601082</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.68680835049972</v>
+        <v>45.44365452615311</v>
       </c>
       <c r="D48" t="n">
-        <v>32.77235929170381</v>
+        <v>36.53112098740015</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>50.68315157495336</v>
+        <v>40.49458812128386</v>
       </c>
       <c r="D49" t="n">
-        <v>36.90634378738305</v>
+        <v>32.03417087954976</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.53318271505056</v>
+        <v>36.87463779734151</v>
       </c>
       <c r="D50" t="n">
-        <v>35.52153298909208</v>
+        <v>33.99883940948941</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.96371555827069</v>
+        <v>41.76154286548647</v>
       </c>
       <c r="D51" t="n">
-        <v>35.03141459491686</v>
+        <v>30.13939292129754</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.29434835494175</v>
+        <v>38.72620368269188</v>
       </c>
       <c r="D52" t="n">
-        <v>31.73120724203222</v>
+        <v>30.94071143155437</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>46.45233606764216</v>
+        <v>40.18255038192549</v>
       </c>
       <c r="D53" t="n">
-        <v>33.55707893913059</v>
+        <v>33.49315825688078</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.07371231223894</v>
+        <v>40.50635435694482</v>
       </c>
       <c r="D54" t="n">
-        <v>34.13177304657771</v>
+        <v>35.85762883719659</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>39.96390227673469</v>
+        <v>38.11378274959726</v>
       </c>
       <c r="D55" t="n">
-        <v>34.71883163323609</v>
+        <v>33.42515624421304</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>41.14958029842495</v>
+        <v>36.57515027849944</v>
       </c>
       <c r="D56" t="n">
-        <v>33.18759742580537</v>
+        <v>33.33260181608252</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>38.97277841313658</v>
+        <v>35.54697937492907</v>
       </c>
       <c r="D57" t="n">
-        <v>35.14584641910982</v>
+        <v>31.59483736908967</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.19300683660071</v>
+        <v>38.19211754253982</v>
       </c>
       <c r="D58" t="n">
-        <v>35.31362837165313</v>
+        <v>35.37444396991386</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>38.34136227935292</v>
+        <v>33.37250799823011</v>
       </c>
       <c r="D59" t="n">
-        <v>36.2445345333465</v>
+        <v>35.06009792208684</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>35.4692560594491</v>
+        <v>25.02618376617128</v>
       </c>
       <c r="D60" t="n">
-        <v>34.02229501601052</v>
+        <v>38.85980305242838</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.57618391869277</v>
+        <v>26.30870899754107</v>
       </c>
       <c r="D61" t="n">
-        <v>32.51201815865617</v>
+        <v>33.66011420945912</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>33.49390683467811</v>
+        <v>29.33221790394528</v>
       </c>
       <c r="D62" t="n">
-        <v>32.93541368651553</v>
+        <v>28.2392362654568</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>33.46717999971406</v>
+        <v>27.94246661438144</v>
       </c>
       <c r="D63" t="n">
-        <v>30.07646236569867</v>
+        <v>31.30865906466659</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.30144370125209</v>
+        <v>30.34981144857662</v>
       </c>
       <c r="D64" t="n">
-        <v>35.91055048046637</v>
+        <v>33.86989468560073</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.36785010047818</v>
+        <v>28.43206558550183</v>
       </c>
       <c r="D65" t="n">
-        <v>32.37417774588435</v>
+        <v>38.75902398758141</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.7828339721565</v>
+        <v>26.38063222919134</v>
       </c>
       <c r="D66" t="n">
-        <v>30.45307884589268</v>
+        <v>33.49586813788172</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.11563816794849</v>
+        <v>25.85706315827299</v>
       </c>
       <c r="D67" t="n">
-        <v>33.45318723586782</v>
+        <v>36.88310538920411</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>28.87585341794577</v>
+        <v>17.62724396752506</v>
       </c>
       <c r="D68" t="n">
-        <v>32.30587123510525</v>
+        <v>32.67721865058294</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>25.26256950874225</v>
+        <v>18.8416399712842</v>
       </c>
       <c r="D69" t="n">
-        <v>32.47522511090244</v>
+        <v>30.89900416430244</v>
       </c>
     </row>
   </sheetData>
